--- a/data/income_statement/3digits/total/254_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/254_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>254-Manufacture of weapons and ammunition</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>254-Manufacture of weapons and ammunition</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>888111.5028400001</v>
@@ -962,37 +868,42 @@
         <v>1416905.49993</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1654312.92022</v>
+        <v>1683859.86807</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1737336.8294</v>
+        <v>1739522.48491</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1121774.05299</v>
+        <v>2092328.33984</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2608470.10262</v>
+        <v>2611228.85564</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>3286409.61601</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4205662.825730001</v>
+        <v>4209066.1906</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>5826000.10359</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>5838021.34835</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>9177553.671</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>731638.5824499999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>832390.2448599999</v>
+        <v>832390.24486</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>1061565.55968</v>
@@ -1001,31 +912,36 @@
         <v>1114226.48584</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1291294.62375</v>
+        <v>1292027.74759</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1261858.22611</v>
+        <v>1264043.88162</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>648066.82293</v>
+        <v>1355855.09696</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1678567.94784</v>
+        <v>1681174.56966</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>2332358.55041</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2952379.81375</v>
+        <v>2953143.38575</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>4034585.68118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4046147.77253</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>6102580.267</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>154718.64498</v>
@@ -1037,34 +953,39 @@
         <v>254509.27958</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>298789.0548200001</v>
+        <v>298789.05482</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>355109.34905</v>
+        <v>383598.21762</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>469173.3581599999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>464012.53401</v>
+        <v>726768.2537999999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>914433.1558899999</v>
+        <v>914585.28709</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>933246.6279300001</v>
+        <v>933246.62793</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>1224804.7112</v>
+        <v>1227444.50407</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1756823.92077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1757283.07418</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3000586.236</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1754.27541</v>
@@ -1079,13 +1000,13 @@
         <v>3889.959269999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7908.947419999999</v>
+        <v>8233.90286</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>6305.245129999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9694.69605</v>
+        <v>9704.989079999999</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>15468.99889</v>
@@ -1099,17 +1020,22 @@
       <c r="M8" s="48" t="n">
         <v>34590.50164</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="48" t="n">
+        <v>74387.16800000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7925.22905</v>
+        <v>7925.229050000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>9154.112440000001</v>
+        <v>9154.112439999999</v>
       </c>
       <c r="E9" s="47" t="n">
         <v>9950.215199999999</v>
@@ -1118,16 +1044,16 @@
         <v>12538.25257</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>14756.81381</v>
+        <v>15191.52529</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>15588.60826</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>9386.5787</v>
+        <v>14317.06192</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14261.6943</v>
+        <v>14265.0543</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>43063.98901</v>
@@ -1138,11 +1064,16 @@
       <c r="M9" s="47" t="n">
         <v>44181.1899</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>45644.055</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>2854.29619</v>
@@ -1157,16 +1088,16 @@
         <v>6062.32547</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>7159.09368</v>
+        <v>7391.17698</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>7470.56511</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>6136.7879</v>
+        <v>6795.05407</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>7335.73278</v>
+        <v>7339.092780000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>25245.67983</v>
@@ -1177,14 +1108,19 @@
       <c r="M10" s="48" t="n">
         <v>30902.12041</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>25307.348</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>4432.43693</v>
+        <v>4432.436930000001</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>6122.508769999999</v>
@@ -1193,16 +1129,16 @@
         <v>5156.73396</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5015.67947</v>
+        <v>5015.679470000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4860.295690000001</v>
+        <v>4860.29569</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>5378.73569</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1980.35509</v>
+        <v>5096.41363</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>4316.34951</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>5955.327139999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>11454.628</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>638.4959299999999</v>
@@ -1235,16 +1176,16 @@
         <v>1460.24763</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>2737.42444</v>
+        <v>2940.05262</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>2739.30746</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1269.43571</v>
+        <v>2425.59422</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2609.612009999999</v>
+        <v>2609.61201</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>10711.2492</v>
@@ -1255,14 +1196,19 @@
       <c r="M12" s="48" t="n">
         <v>7323.74235</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>8882.079</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>880186.2737899999</v>
+        <v>880186.27379</v>
       </c>
       <c r="D13" s="47" t="n">
         <v>997515.9231499999</v>
@@ -1274,34 +1220,39 @@
         <v>1404367.24736</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1639556.10641</v>
+        <v>1668668.34278</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1721748.22114</v>
+        <v>1723933.87665</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1112387.47429</v>
+        <v>2078011.27792</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2594208.40832</v>
+        <v>2596963.80134</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>3243345.627</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4173462.11719</v>
+        <v>4176865.48206</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>5781818.913690001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5793840.15845</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>9131909.616</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>570215.57658</v>
+        <v>570215.5765799999</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>628713.458</v>
@@ -1310,34 +1261,39 @@
         <v>778375.00847</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>904415.4259899999</v>
+        <v>904415.42599</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1088639.57044</v>
+        <v>1108679.5017</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1157103.43892</v>
+        <v>1158845.21476</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>848291.96008</v>
+        <v>1394054.60733</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1745299.1943</v>
+        <v>1747965.95817</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>2169939.94249</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>2607773.33768</v>
+        <v>2611888.1418</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3518596.80843</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3526940.31427</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5613133.73</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>460136.4976400001</v>
@@ -1346,37 +1302,42 @@
         <v>509794.41148</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>637473.4736799999</v>
+        <v>637473.4736800001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>730016.07597</v>
+        <v>730016.0759699999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>880080.6393999999</v>
+        <v>900070.57066</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>912458.4969799999</v>
+        <v>912458.4969800001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>781899.9115299999</v>
+        <v>1104848.31979</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1301110.31356</v>
+        <v>1303777.07743</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>1698066.50272</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2022207.13843</v>
+        <v>2023021.97718</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>2923470.36391</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2930618.856850001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4334701.937</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>94003.932</v>
@@ -1391,13 +1352,13 @@
         <v>141506.71403</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>188015.05318</v>
+        <v>188065.05318</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>203985.76851</v>
+        <v>205727.54435</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>53342.53487999999</v>
+        <v>265244.59685</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>415270.1128</v>
@@ -1406,16 +1367,21 @@
         <v>395218.91494</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>522270.34539</v>
+        <v>524843.98541</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>546969.4551200001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>548153.46802</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1051410.162</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>3407.5855</v>
@@ -1436,25 +1402,30 @@
         <v>37616.55101</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>9505.64437</v>
+        <v>15302.80883</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>25437.98851</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>50993.63003999999</v>
+        <v>50993.63004</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>56185.32811</v>
+        <v>56911.65346</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>42432.92178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>42443.92178</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>222221.319</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>12667.56144</v>
@@ -1466,7 +1437,7 @@
         <v>13132.86731</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9495.400670000001</v>
+        <v>9495.400669999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>3259.71636</v>
@@ -1475,7 +1446,7 @@
         <v>3042.62242</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3543.8693</v>
+        <v>8658.88186</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>3480.77943</v>
@@ -1489,17 +1460,22 @@
       <c r="M18" s="48" t="n">
         <v>5724.06762</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>4800.312</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>309970.69721</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>368802.46515</v>
+        <v>368802.4651500001</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>530811.78995</v>
@@ -1508,31 +1484,36 @@
         <v>499951.82137</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>550916.5359700001</v>
+        <v>559988.84108</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>564644.7822200001</v>
+        <v>565088.66189</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>264095.51421</v>
+        <v>683956.67059</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>848909.21402</v>
+        <v>848997.84317</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>1073405.68451</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1565688.77951</v>
+        <v>1564977.34026</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2263222.10526</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>2266899.84418</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>3518775.886</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>179136.65266</v>
@@ -1547,31 +1528,36 @@
         <v>257381.01511</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>279961.76048</v>
+        <v>281808.02738</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>307920.54632</v>
+        <v>308308.64952</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>122373.504</v>
+        <v>350765.08414</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>422115.55781</v>
+        <v>422295.86694</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>501316.99093</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>612359.37788</v>
+        <v>613455.3014700001</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>792762.55524</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>794611.8315900001</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1060743.596</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>12252.88018</v>
@@ -1592,7 +1578,7 @@
         <v>19058.23652</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>3653.71421</v>
+        <v>20653.33097</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>20233.97262</v>
@@ -1604,19 +1590,24 @@
         <v>38672.76291</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>42292.24839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>42300.29995</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>51340.247</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>32387.06782</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>35080.96287999999</v>
+        <v>35080.96288</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>43948.212</v>
@@ -1625,31 +1616,36 @@
         <v>50822.12559</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>54830.99505</v>
+        <v>55451.73695000001</v>
       </c>
       <c r="H22" s="48" t="n">
         <v>63307.86328</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>46593.38039</v>
+        <v>76857.78274000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>107592.22405</v>
+        <v>107594.51797</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>121424.94197</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>154722.94011</v>
+        <v>154848.15903</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>210336.99842</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>210482.54798</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>346625.461</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>134496.70466</v>
@@ -1664,31 +1660,36 @@
         <v>191427.99947</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>205708.78705</v>
+        <v>206934.31205</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>225554.44652</v>
+        <v>225942.54972</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>72126.4094</v>
+        <v>253253.97043</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>294289.36114</v>
+        <v>294467.37635</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>351740.68992</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>418963.67486</v>
+        <v>419934.37953</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>540133.30843</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>541828.9836599999</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>662777.888</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>130834.04455</v>
@@ -1703,34 +1704,39 @@
         <v>242570.80626</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>270954.77549</v>
+        <v>278180.8137</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>256724.2359</v>
+        <v>256780.01237</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>141722.01021</v>
+        <v>333191.58645</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>426793.65621</v>
+        <v>426701.97623</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>572088.6935800001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>953329.40163</v>
+        <v>951522.0387899999</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1470459.55002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1472288.01259</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2458032.29</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>38374.30555999999</v>
+        <v>38374.30556</v>
       </c>
       <c r="D25" s="47" t="n">
         <v>33508.56905</v>
@@ -1742,31 +1748,36 @@
         <v>84022.13787000001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>105573.78053</v>
+        <v>105952.06255</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>77607.59714999999</v>
+        <v>77607.59715</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>51198.39957</v>
+        <v>131975.45279</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>143615.01547</v>
+        <v>143615.94198</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>190204.52815</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>633009.96426</v>
+        <v>634080.6024200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>431806.04002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>432226.34938</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>881790.827</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2960.123</v>
@@ -1787,7 +1798,7 @@
         <v>10905.91703</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>22.53531</v>
+        <v>12716.57946</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>8426.47644</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>4702.67455</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>5664.002</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>2239.78278</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>489.925</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>14712.41209</v>
@@ -1859,31 +1880,36 @@
         <v>24310.313</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>15765.35655</v>
+        <v>15801.14629</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>10477.01994</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2639.60702</v>
+        <v>7427.856870000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>9352.32208</v>
+        <v>9352.35909</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>17856.02942</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>40680.53171</v>
+        <v>41590.69970999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>71374.87202000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>71376.38240999999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>38885.974</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>737.93704</v>
@@ -1904,7 +1930,7 @@
         <v>591.9367099999999</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>55.24226</v>
+        <v>254.00378</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>248.42849</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>834.03043</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>279.538</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>291.63957</v>
@@ -1937,13 +1968,13 @@
         <v>851.81307</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>524.2461499999999</v>
+        <v>524.2461500000001</v>
       </c>
       <c r="H30" s="48" t="n">
         <v>622.40505</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>244.17817</v>
+        <v>1546.56811</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>105.97918</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>20836.89375</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>1958.841</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>37.21456</v>
@@ -1970,7 +2006,7 @@
         <v>38.9357</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>85.66672</v>
+        <v>85.66672000000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>167.10385</v>
@@ -1991,16 +2027,21 @@
         <v>220.52485</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>7986.14386</v>
+        <v>7986.143860000001</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>43288.39534</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>4953.541</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>18432.61438</v>
@@ -2015,31 +2056,36 @@
         <v>47095.99343</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>72047.06305</v>
+        <v>72389.55533</v>
       </c>
       <c r="H32" s="48" t="n">
         <v>53389.30342</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>46789.79248999999</v>
+        <v>108437.91035</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>122271.80803</v>
+        <v>122272.69753</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>147126.51042</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>551931.76951</v>
+        <v>552091.01521</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>262755.10146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>262853.52779</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>799854.9669999999</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0.29674</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>721.9880000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>747.327</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1202.06818</v>
@@ -2129,7 +2185,7 @@
         <v>4280.80329</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>2221.725570000001</v>
+        <v>2221.72557</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>1021.69804</v>
@@ -2138,7 +2194,7 @@
         <v>1133.32085</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1021.23469</v>
+        <v>1166.72459</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>2614.46679</v>
@@ -2147,16 +2203,21 @@
         <v>11690.79754</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>14386.7321</v>
+        <v>14387.95656</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>25052.30169</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>25372.67433</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>28956.712</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>24106.68644</v>
@@ -2165,37 +2226,42 @@
         <v>18396.28649</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>58491.72530000001</v>
+        <v>58491.7253</v>
       </c>
       <c r="F36" s="47" t="n">
         <v>35801.7072</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>74928.76857000001</v>
+        <v>76667.96305000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>63998.26952999999</v>
+        <v>63998.26953</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>63503.00487</v>
+        <v>116533.90054</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>145946.94889</v>
+        <v>145982.2845</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>223831.00243</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>743872.0493000002</v>
+        <v>743910.4767100001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>326404.61407</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>326501.77976</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>764249.563</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2696.12456</v>
@@ -2210,13 +2276,13 @@
         <v>2030.25857</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>1021.75817</v>
+        <v>1080.3313</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>1070.07167</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>555.8667399999999</v>
+        <v>1378.95526</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>3337.88445</v>
@@ -2225,19 +2291,24 @@
         <v>2583.40498</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>5313.46876</v>
+        <v>5313.562760000001</v>
       </c>
       <c r="M37" s="48" t="n">
         <v>3914.94734</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>3939.793</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2841.3536</v>
+        <v>2841.353599999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>1397.02798</v>
@@ -2255,7 +2326,7 @@
         <v>1458.84185</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>115.29862</v>
+        <v>1286.97241</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>2310.74626</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>4896.716640000001</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>19774.455</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>1.17267</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>18192.04357</v>
@@ -2321,37 +2402,42 @@
         <v>14491.37772</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>56270.99156999999</v>
+        <v>56270.99157</v>
       </c>
       <c r="F40" s="48" t="n">
         <v>31756.48915</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>72113.78259</v>
+        <v>73794.40394</v>
       </c>
       <c r="H40" s="48" t="n">
         <v>60315.35593999999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>57439.78575</v>
+        <v>108305.41672</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>135297.83187</v>
+        <v>135333.16748</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>201961.66846</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>690919.00847</v>
+        <v>690957.34188</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>291863.49136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>291960.65705</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>691473.101</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>580.87528</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>652.476</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>377.16471</v>
@@ -2441,7 +2537,7 @@
         <v>301.87789</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>918.7885799999998</v>
+        <v>918.78858</v>
       </c>
       <c r="G43" s="48" t="n">
         <v>1078.9686</v>
@@ -2450,7 +2546,7 @@
         <v>1153.60705</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3223.08408</v>
+        <v>3393.58647</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3644.75559</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>25147.41078</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>48409.738</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>12498.02787</v>
@@ -2480,34 +2581,39 @@
         <v>49305.39317</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>24881.83026000001</v>
+        <v>24881.83026</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>37786.40638</v>
+        <v>38142.65004</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>30532.9068</v>
+        <v>30550.64243</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>36803.75574</v>
+        <v>37191.72594</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>43869.53431</v>
+        <v>43870.46329</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>60461.66907</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>126407.11865</v>
+        <v>126484.36934</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>166740.44018</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>166765.00569</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>273945.029</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>12120.7134</v>
@@ -2522,31 +2628,36 @@
         <v>20065.91925</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>36666.26736</v>
+        <v>37022.51102</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>28945.2735</v>
+        <v>28963.00913</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>34830.19517</v>
+        <v>35218.16537</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>40605.85253</v>
+        <v>40606.78151</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>57436.04172</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>113300.32186</v>
+        <v>113377.57255</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>160309.67501</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>160334.24052</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>165702.885</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>377.31447</v>
@@ -2558,7 +2669,7 @@
         <v>973.1837699999999</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4815.91101</v>
+        <v>4815.911009999999</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>1120.13902</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>6430.76517</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>108242.144</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>132603.6358</v>
@@ -2597,37 +2713,42 @@
         <v>280227.86357</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>265909.40667</v>
+        <v>265909.4066699999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>263813.38107</v>
+        <v>269322.26316</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>239800.65672</v>
+        <v>239838.69756</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>92613.64916999999</v>
+        <v>311441.41276</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>380592.18848</v>
+        <v>380465.17042</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>478000.55023</v>
+        <v>478000.5502299999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>716060.19794</v>
+        <v>715207.7951600001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1409120.53579</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1411247.57652</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2301628.525</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6702.502389999999</v>
+        <v>6702.502390000001</v>
       </c>
       <c r="D48" s="47" t="n">
         <v>12502.91883</v>
@@ -2639,31 +2760,36 @@
         <v>39020.09765</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>68989.51711999999</v>
+        <v>69064.59780999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>47409.56048000001</v>
+        <v>47413.48863</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>23657.80569</v>
+        <v>42781.68438000001</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>72994.6565</v>
+        <v>72994.65653000001</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>47501.43467</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>78610.29918999999</v>
+        <v>78662.64819999998</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>75705.62867000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>75728.06127000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>108917.066</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1248.32225</v>
@@ -2684,10 +2810,10 @@
         <v>4941.44642</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>22.02721</v>
+        <v>2257.64592</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>4515.37315</v>
+        <v>4515.373180000001</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>4297.96825</v>
@@ -2698,11 +2824,16 @@
       <c r="M49" s="48" t="n">
         <v>11958.93117</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>18970.834</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>5454.18014</v>
@@ -2717,13 +2848,13 @@
         <v>32173.82912</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>65548.74115</v>
+        <v>65623.82184</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>42468.11406000001</v>
+        <v>42472.04221000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>23635.77848</v>
+        <v>40524.03846</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>68479.28335000001</v>
@@ -2732,16 +2863,21 @@
         <v>43203.46642</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>69649.90535000002</v>
+        <v>69702.25436000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>63746.6975</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>63769.13009999999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>89946.232</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>109622.55733</v>
@@ -2756,40 +2892,45 @@
         <v>134616.03129</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>147174.80036</v>
+        <v>147185.16438</v>
       </c>
       <c r="H51" s="47" t="n">
         <v>218850.11373</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8604.107290000002</v>
+        <v>199163.76612</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>309523.19664</v>
+        <v>309523.71537</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>302818.32365</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>435810.37353</v>
+        <v>436048.8179500001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>346824.07849</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>346945.39708</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>256686.853</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>71881.14883000002</v>
+        <v>71881.14882999999</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>76834.18286</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>70191.84754999999</v>
+        <v>70191.84755000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>77860.79893999999</v>
@@ -2801,7 +2942,7 @@
         <v>135272.03434</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>178.99666</v>
+        <v>143132.87679</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>148544.87417</v>
@@ -2810,16 +2951,21 @@
         <v>159642.49081</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>201161.39872</v>
+        <v>201329.4124</v>
       </c>
       <c r="M52" s="48" t="n">
         <v>193363.67862</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>191388.451</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>24320.32649</v>
@@ -2840,7 +2986,7 @@
         <v>50191.46596</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>906.2664100000001</v>
+        <v>28932.20615</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>33251.63865</v>
@@ -2854,11 +3000,16 @@
       <c r="M53" s="48" t="n">
         <v>102113.90294</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>22141.028</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13421.08201</v>
@@ -2870,34 +3021,39 @@
         <v>38358.72715</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>19845.44745999999</v>
+        <v>19845.44746</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>18904.83026</v>
+        <v>18915.19428</v>
       </c>
       <c r="H54" s="48" t="n">
         <v>33386.61343</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7518.84422</v>
+        <v>27098.68318</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>127726.68382</v>
+        <v>127727.20255</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>21216.16892</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>53137.59352</v>
+        <v>53208.02426</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>51346.49693</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>51467.81552</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>43157.374</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>29683.58086</v>
@@ -2912,31 +3068,36 @@
         <v>170313.47303</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>185628.09783</v>
+        <v>191201.69659</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>68360.10347</v>
+        <v>68402.07246</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>107667.34757</v>
+        <v>155059.33102</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>144063.64834</v>
+        <v>143936.11158</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>222683.66125</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>358860.1236</v>
+        <v>357821.62541</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1138002.08597</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1140030.24071</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2153858.738</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>3733.56222</v>
@@ -2951,31 +3112,36 @@
         <v>34213.51715</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>34785.31543</v>
+        <v>35905.72190999999</v>
       </c>
       <c r="H56" s="47" t="n">
         <v>11761.43528</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>15081.02831</v>
+        <v>21431.32515</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>20606.01339</v>
+        <v>20615.49036</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>46295.60542999999</v>
+        <v>46295.60543</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>113082.25744</v>
+        <v>113232.48722</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>230393.7156699999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>231124.86433</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>333043.511</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>25950.01864</v>
@@ -2990,28 +3156,31 @@
         <v>136099.95588</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>150842.7824</v>
+        <v>155295.97468</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>56598.66819</v>
+        <v>56640.63717999999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>92586.31925999999</v>
+        <v>133628.00587</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>123457.63495</v>
+        <v>123320.62122</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>176388.05582</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>245777.86616</v>
+        <v>244589.13819</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>907608.3703000001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>908905.37638</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1820815.227</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>141</v>
@@ -3044,28 +3216,31 @@
         <v>174</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>269</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>249</v>
+        <v>300</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>331</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>